--- a/documents/ページ一覧.xlsx
+++ b/documents/ページ一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5548B81D-22B3-4CB0-8392-F1506F9203FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{5548B81D-22B3-4CB0-8392-F1506F9203FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1753E9C0-4F33-430B-8ACC-9C6758337207}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C57020C3-8652-4716-AB70-26E7434C9122}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -194,6 +194,24 @@
     <rPh sb="19" eb="21">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理を行うページ</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A860E5B-EC5B-45AB-8B10-92D85951BE8C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -649,6 +667,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/ページ一覧.xlsx
+++ b/documents/ページ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5548B81D-22B3-4CB0-8392-F1506F9203FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1753E9C0-4F33-430B-8ACC-9C6758337207}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5548B81D-22B3-4CB0-8392-F1506F9203FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A0444D-07E8-436B-8CC7-6DC87EDED45B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C57020C3-8652-4716-AB70-26E7434C9122}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ショッピングカート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,21 +193,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログアウト　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト処理を行うページ</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>logout.php</t>
+    <t>edit.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,6 +261,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A860E5B-EC5B-45AB-8B10-92D85951BE8C}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -603,79 +589,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
